--- a/data/변수목록.xlsx
+++ b/data/변수목록.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="415">
   <si>
     <t>성장성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1293,6 +1293,30 @@
   </si>
   <si>
     <t>매출액 / 자산총계</t>
+  </si>
+  <si>
+    <t>추가할 변수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출액 = 매출원가 + 총매출이익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부도기업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출원가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업이익 = 매출액 - 매출원가 - 판매비 - 관리비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매비, 관리비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1442,12 +1466,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1467,6 +1485,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -1749,10 +1773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F16"/>
+  <dimension ref="B2:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25:M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1771,7 +1795,7 @@
       <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>402</v>
       </c>
       <c r="F2" t="s">
@@ -1779,7 +1803,7 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1796,7 +1820,7 @@
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="5"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1811,7 +1835,7 @@
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1828,7 +1852,7 @@
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="5"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="3" t="s">
         <v>405</v>
       </c>
@@ -1843,7 +1867,7 @@
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="5"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1858,7 +1882,7 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="5"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="3" t="s">
         <v>406</v>
       </c>
@@ -1873,7 +1897,7 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="5"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1888,7 +1912,7 @@
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="5"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1903,7 +1927,7 @@
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1920,7 +1944,7 @@
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="5"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="3" t="s">
         <v>407</v>
       </c>
@@ -1935,7 +1959,7 @@
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="5"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
@@ -1950,7 +1974,7 @@
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1967,7 +1991,7 @@
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="5"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1982,11 +2006,11 @@
       </c>
     </row>
     <row r="16" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B16" s="6"/>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E16">
@@ -1994,6 +2018,33 @@
       </c>
       <c r="F16">
         <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5">
+      <c r="C24" t="s">
+        <v>409</v>
+      </c>
+      <c r="E24" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="C25" t="s">
+        <v>412</v>
+      </c>
+      <c r="D25" t="s">
+        <v>410</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5">
+      <c r="C26" t="s">
+        <v>414</v>
+      </c>
+      <c r="D26" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -2029,2906 +2080,2906 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="10" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1"/>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" spans="5:5">
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18" spans="5:5">
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="19" spans="5:5">
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="20" spans="5:5">
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="5:5">
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="5:5">
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="23" spans="5:5">
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="24" spans="5:5">
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="10" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="25" spans="5:5">
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="26" spans="5:5">
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="27" spans="5:5">
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="10" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="28" spans="5:5">
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="29" spans="5:5">
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="30" spans="5:5">
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="31" spans="5:5">
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="32" spans="5:5">
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="10" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="33" spans="5:5">
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="34" spans="5:5">
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="10" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="35" spans="5:5">
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="36" spans="5:5">
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="10" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="37" spans="5:5">
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="38" spans="5:5">
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="10" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="39" spans="5:5">
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="10" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="40" spans="5:5">
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="10" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41" spans="5:5">
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="42" spans="5:5">
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="10" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="43" spans="5:5">
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="10" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="44" spans="5:5">
-      <c r="E44" s="12">
+      <c r="E44" s="10">
         <v>41</v>
       </c>
     </row>
     <row r="45" spans="5:5">
-      <c r="E45" s="11"/>
+      <c r="E45" s="9"/>
     </row>
     <row r="46" spans="5:5">
-      <c r="E46" s="12" t="s">
+      <c r="E46" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="47" spans="5:5">
-      <c r="E47" s="12" t="s">
+      <c r="E47" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="48" spans="5:5">
-      <c r="E48" s="12" t="s">
+      <c r="E48" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="49" spans="5:5">
-      <c r="E49" s="12" t="s">
+      <c r="E49" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="50" spans="5:5">
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="5:5">
-      <c r="E51" s="12" t="s">
+      <c r="E51" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="52" spans="5:5">
-      <c r="E52" s="12" t="s">
+      <c r="E52" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="53" spans="5:5">
-      <c r="E53" s="12" t="s">
+      <c r="E53" s="10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="54" spans="5:5">
-      <c r="E54" s="12" t="s">
+      <c r="E54" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="55" spans="5:5">
-      <c r="E55" s="12" t="s">
+      <c r="E55" s="10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="56" spans="5:5">
-      <c r="E56" s="12" t="s">
+      <c r="E56" s="10" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="57" spans="5:5">
-      <c r="E57" s="12" t="s">
+      <c r="E57" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="58" spans="5:5">
-      <c r="E58" s="12" t="s">
+      <c r="E58" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="59" spans="5:5">
-      <c r="E59" s="12" t="s">
+      <c r="E59" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="60" spans="5:5">
-      <c r="E60" s="12" t="s">
+      <c r="E60" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="61" spans="5:5">
-      <c r="E61" s="12" t="s">
+      <c r="E61" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="62" spans="5:5">
-      <c r="E62" s="12" t="s">
+      <c r="E62" s="10" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="63" spans="5:5">
-      <c r="E63" s="12" t="s">
+      <c r="E63" s="10" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="64" spans="5:5">
-      <c r="E64" s="12" t="s">
+      <c r="E64" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="65" spans="5:5">
-      <c r="E65" s="12" t="s">
+      <c r="E65" s="10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="66" spans="5:5">
-      <c r="E66" s="12" t="s">
+      <c r="E66" s="10" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="67" spans="5:5">
-      <c r="E67" s="12" t="s">
+      <c r="E67" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="68" spans="5:5">
-      <c r="E68" s="12" t="s">
+      <c r="E68" s="10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="69" spans="5:5">
-      <c r="E69" s="12" t="s">
+      <c r="E69" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="70" spans="5:5">
-      <c r="E70" s="12" t="s">
+      <c r="E70" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="71" spans="5:5">
-      <c r="E71" s="12" t="s">
+      <c r="E71" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="72" spans="5:5">
-      <c r="E72" s="12" t="s">
+      <c r="E72" s="10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="73" spans="5:5">
-      <c r="E73" s="12" t="s">
+      <c r="E73" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="74" spans="5:5">
-      <c r="E74" s="12" t="s">
+      <c r="E74" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="75" spans="5:5">
-      <c r="E75" s="12" t="s">
+      <c r="E75" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="76" spans="5:5">
-      <c r="E76" s="12" t="s">
+      <c r="E76" s="10" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="77" spans="5:5">
-      <c r="E77" s="12" t="s">
+      <c r="E77" s="10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="78" spans="5:5">
-      <c r="E78" s="12" t="s">
+      <c r="E78" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="79" spans="5:5">
-      <c r="E79" s="12" t="s">
+      <c r="E79" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="80" spans="5:5">
-      <c r="E80" s="12" t="s">
+      <c r="E80" s="10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="81" spans="5:5">
-      <c r="E81" s="12" t="s">
+      <c r="E81" s="10" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="82" spans="5:5">
-      <c r="E82" s="12" t="s">
+      <c r="E82" s="10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="83" spans="5:5">
-      <c r="E83" s="12" t="s">
+      <c r="E83" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="84" spans="5:5">
-      <c r="E84" s="12" t="s">
+      <c r="E84" s="10" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="85" spans="5:5">
-      <c r="E85" s="12" t="s">
+      <c r="E85" s="10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="86" spans="5:5">
-      <c r="E86" s="12" t="s">
+      <c r="E86" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="87" spans="5:5">
-      <c r="E87" s="12" t="s">
+      <c r="E87" s="10" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="88" spans="5:5">
-      <c r="E88" s="12" t="s">
+      <c r="E88" s="10" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="89" spans="5:5">
-      <c r="E89" s="12" t="s">
+      <c r="E89" s="10" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="90" spans="5:5">
-      <c r="E90" s="12" t="s">
+      <c r="E90" s="10" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="91" spans="5:5">
-      <c r="E91" s="12" t="s">
+      <c r="E91" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="92" spans="5:5">
-      <c r="E92" s="12" t="s">
+      <c r="E92" s="10" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="93" spans="5:5">
-      <c r="E93" s="12" t="s">
+      <c r="E93" s="10" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="94" spans="5:5">
-      <c r="E94" s="12">
+      <c r="E94" s="10">
         <v>47</v>
       </c>
     </row>
     <row r="95" spans="5:5">
-      <c r="E95" s="11"/>
+      <c r="E95" s="9"/>
     </row>
     <row r="96" spans="5:5">
-      <c r="E96" s="12" t="s">
+      <c r="E96" s="10" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="97" spans="5:5">
-      <c r="E97" s="12" t="s">
+      <c r="E97" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="98" spans="5:5">
-      <c r="E98" s="12" t="s">
+      <c r="E98" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="99" spans="5:5">
-      <c r="E99" s="12" t="s">
+      <c r="E99" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="100" spans="5:5">
-      <c r="E100" s="12" t="s">
+      <c r="E100" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="101" spans="5:5">
-      <c r="E101" s="12" t="s">
+      <c r="E101" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="102" spans="5:5">
-      <c r="E102" s="12" t="s">
+      <c r="E102" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="103" spans="5:5">
-      <c r="E103" s="12" t="s">
+      <c r="E103" s="10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="104" spans="5:5">
-      <c r="E104" s="12" t="s">
+      <c r="E104" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="105" spans="5:5">
-      <c r="E105" s="12" t="s">
+      <c r="E105" s="10" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="106" spans="5:5">
-      <c r="E106" s="12" t="s">
+      <c r="E106" s="10" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="107" spans="5:5">
-      <c r="E107" s="12">
+      <c r="E107" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="108" spans="5:5">
-      <c r="E108" s="11"/>
+      <c r="E108" s="9"/>
     </row>
     <row r="109" spans="5:5">
-      <c r="E109" s="12" t="s">
+      <c r="E109" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="110" spans="5:5">
-      <c r="E110" s="12" t="s">
+      <c r="E110" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="111" spans="5:5">
-      <c r="E111" s="12" t="s">
+      <c r="E111" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="112" spans="5:5">
-      <c r="E112" s="12" t="s">
+      <c r="E112" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="113" spans="5:5">
-      <c r="E113" s="12" t="s">
+      <c r="E113" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="114" spans="5:5">
-      <c r="E114" s="12" t="s">
+      <c r="E114" s="10" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="115" spans="5:5">
-      <c r="E115" s="12" t="s">
+      <c r="E115" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="116" spans="5:5">
-      <c r="E116" s="12" t="s">
+      <c r="E116" s="10" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="117" spans="5:5">
-      <c r="E117" s="12" t="s">
+      <c r="E117" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="118" spans="5:5">
-      <c r="E118" s="12" t="s">
+      <c r="E118" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="119" spans="5:5">
-      <c r="E119" s="12" t="s">
+      <c r="E119" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="120" spans="5:5">
-      <c r="E120" s="12" t="s">
+      <c r="E120" s="10" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="121" spans="5:5">
-      <c r="E121" s="12" t="s">
+      <c r="E121" s="10" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="122" spans="5:5">
-      <c r="E122" s="12" t="s">
+      <c r="E122" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="123" spans="5:5">
-      <c r="E123" s="12" t="s">
+      <c r="E123" s="10" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="124" spans="5:5">
-      <c r="E124" s="12" t="s">
+      <c r="E124" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="125" spans="5:5">
-      <c r="E125" s="12" t="s">
+      <c r="E125" s="10" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="126" spans="5:5">
-      <c r="E126" s="12" t="s">
+      <c r="E126" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="127" spans="5:5">
-      <c r="E127" s="12" t="s">
+      <c r="E127" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="128" spans="5:5">
-      <c r="E128" s="12" t="s">
+      <c r="E128" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="129" spans="5:5">
-      <c r="E129" s="12" t="s">
+      <c r="E129" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="130" spans="5:5">
-      <c r="E130" s="12" t="s">
+      <c r="E130" s="10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="131" spans="5:5">
-      <c r="E131" s="12" t="s">
+      <c r="E131" s="10" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="132" spans="5:5">
-      <c r="E132" s="12" t="s">
+      <c r="E132" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="133" spans="5:5">
-      <c r="E133" s="12" t="s">
+      <c r="E133" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="134" spans="5:5">
-      <c r="E134" s="12" t="s">
+      <c r="E134" s="10" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="135" spans="5:5">
-      <c r="E135" s="12" t="s">
+      <c r="E135" s="10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="136" spans="5:5">
-      <c r="E136" s="12" t="s">
+      <c r="E136" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="137" spans="5:5">
-      <c r="E137" s="12" t="s">
+      <c r="E137" s="10" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="138" spans="5:5">
-      <c r="E138" s="12" t="s">
+      <c r="E138" s="10" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="139" spans="5:5">
-      <c r="E139" s="12" t="s">
+      <c r="E139" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="140" spans="5:5">
-      <c r="E140" s="12" t="s">
+      <c r="E140" s="10" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="141" spans="5:5">
-      <c r="E141" s="12" t="s">
+      <c r="E141" s="10" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="142" spans="5:5">
-      <c r="E142" s="12" t="s">
+      <c r="E142" s="10" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="143" spans="5:5">
-      <c r="E143" s="12" t="s">
+      <c r="E143" s="10" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="144" spans="5:5">
-      <c r="E144" s="12" t="s">
+      <c r="E144" s="10" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="145" spans="5:5">
-      <c r="E145" s="12" t="s">
+      <c r="E145" s="10" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="146" spans="5:5">
-      <c r="E146" s="12" t="s">
+      <c r="E146" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="147" spans="5:5">
-      <c r="E147" s="12" t="s">
+      <c r="E147" s="10" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="148" spans="5:5">
-      <c r="E148" s="12" t="s">
+      <c r="E148" s="10" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="149" spans="5:5">
-      <c r="E149" s="12">
+      <c r="E149" s="10">
         <v>39</v>
       </c>
     </row>
     <row r="150" spans="5:5">
-      <c r="E150" s="11"/>
+      <c r="E150" s="9"/>
     </row>
     <row r="151" spans="5:5">
-      <c r="E151" s="12" t="s">
+      <c r="E151" s="10" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="152" spans="5:5">
-      <c r="E152" s="12" t="s">
+      <c r="E152" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="153" spans="5:5">
-      <c r="E153" s="12" t="s">
+      <c r="E153" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="154" spans="5:5">
-      <c r="E154" s="12" t="s">
+      <c r="E154" s="10" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="155" spans="5:5">
-      <c r="E155" s="12" t="s">
+      <c r="E155" s="10" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="156" spans="5:5">
-      <c r="E156" s="12" t="s">
+      <c r="E156" s="10" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="157" spans="5:5">
-      <c r="E157" s="12" t="s">
+      <c r="E157" s="10" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="158" spans="5:5">
-      <c r="E158" s="12" t="s">
+      <c r="E158" s="10" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="159" spans="5:5">
-      <c r="E159" s="12" t="s">
+      <c r="E159" s="10" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="160" spans="5:5">
-      <c r="E160" s="12" t="s">
+      <c r="E160" s="10" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="161" spans="5:5">
-      <c r="E161" s="12" t="s">
+      <c r="E161" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="162" spans="5:5">
-      <c r="E162" s="12" t="s">
+      <c r="E162" s="10" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="163" spans="5:5">
-      <c r="E163" s="12" t="s">
+      <c r="E163" s="10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="164" spans="5:5">
-      <c r="E164" s="12" t="s">
+      <c r="E164" s="10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="165" spans="5:5">
-      <c r="E165" s="12" t="s">
+      <c r="E165" s="10" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="166" spans="5:5">
-      <c r="E166" s="12" t="s">
+      <c r="E166" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="167" spans="5:5">
-      <c r="E167" s="12" t="s">
+      <c r="E167" s="10" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="168" spans="5:5">
-      <c r="E168" s="12" t="s">
+      <c r="E168" s="10" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="169" spans="5:5">
-      <c r="E169" s="12" t="s">
+      <c r="E169" s="10" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="170" spans="5:5">
-      <c r="E170" s="12" t="s">
+      <c r="E170" s="10" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="171" spans="5:5">
-      <c r="E171" s="12" t="s">
+      <c r="E171" s="10" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="172" spans="5:5">
-      <c r="E172" s="12" t="s">
+      <c r="E172" s="10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="173" spans="5:5">
-      <c r="E173" s="12" t="s">
+      <c r="E173" s="10" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="174" spans="5:5">
-      <c r="E174" s="12" t="s">
+      <c r="E174" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="175" spans="5:5">
-      <c r="E175" s="12" t="s">
+      <c r="E175" s="10" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="176" spans="5:5">
-      <c r="E176" s="12" t="s">
+      <c r="E176" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="177" spans="5:5">
-      <c r="E177" s="12" t="s">
+      <c r="E177" s="10" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="178" spans="5:5">
-      <c r="E178" s="12" t="s">
+      <c r="E178" s="10" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="179" spans="5:5">
-      <c r="E179" s="12" t="s">
+      <c r="E179" s="10" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="180" spans="5:5">
-      <c r="E180" s="12" t="s">
+      <c r="E180" s="10" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="181" spans="5:5">
-      <c r="E181" s="12" t="s">
+      <c r="E181" s="10" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="182" spans="5:5">
-      <c r="E182" s="12" t="s">
+      <c r="E182" s="10" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="183" spans="5:5">
-      <c r="E183" s="12" t="s">
+      <c r="E183" s="10" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="184" spans="5:5">
-      <c r="E184" s="12" t="s">
+      <c r="E184" s="10" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="185" spans="5:5">
-      <c r="E185" s="12" t="s">
+      <c r="E185" s="10" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="186" spans="5:5">
-      <c r="E186" s="12" t="s">
+      <c r="E186" s="10" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="187" spans="5:5">
-      <c r="E187" s="12" t="s">
+      <c r="E187" s="10" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="188" spans="5:5">
-      <c r="E188" s="12" t="s">
+      <c r="E188" s="10" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="189" spans="5:5">
-      <c r="E189" s="12" t="s">
+      <c r="E189" s="10" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="190" spans="5:5">
-      <c r="E190" s="12" t="s">
+      <c r="E190" s="10" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="191" spans="5:5">
-      <c r="E191" s="12" t="s">
+      <c r="E191" s="10" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="192" spans="5:5">
-      <c r="E192" s="12" t="s">
+      <c r="E192" s="10" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="193" spans="5:5">
-      <c r="E193" s="12" t="s">
+      <c r="E193" s="10" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="194" spans="5:5">
-      <c r="E194" s="12" t="s">
+      <c r="E194" s="10" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="195" spans="5:5">
-      <c r="E195" s="12" t="s">
+      <c r="E195" s="10" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="196" spans="5:5">
-      <c r="E196" s="12" t="s">
+      <c r="E196" s="10" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="197" spans="5:5">
-      <c r="E197" s="12" t="s">
+      <c r="E197" s="10" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="198" spans="5:5">
-      <c r="E198" s="12" t="s">
+      <c r="E198" s="10" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="199" spans="5:5">
-      <c r="E199" s="12" t="s">
+      <c r="E199" s="10" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="200" spans="5:5">
-      <c r="E200" s="12" t="s">
+      <c r="E200" s="10" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="201" spans="5:5">
-      <c r="E201" s="12" t="s">
+      <c r="E201" s="10" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="202" spans="5:5">
-      <c r="E202" s="12" t="s">
+      <c r="E202" s="10" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="203" spans="5:5">
-      <c r="E203" s="12" t="s">
+      <c r="E203" s="10" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="204" spans="5:5">
-      <c r="E204" s="12" t="s">
+      <c r="E204" s="10" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="205" spans="5:5">
-      <c r="E205" s="12" t="s">
+      <c r="E205" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="206" spans="5:5">
-      <c r="E206" s="12" t="s">
+      <c r="E206" s="10" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="207" spans="5:5">
-      <c r="E207" s="12" t="s">
+      <c r="E207" s="10" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="208" spans="5:5">
-      <c r="E208" s="12" t="s">
+      <c r="E208" s="10" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="209" spans="5:5">
-      <c r="E209" s="12" t="s">
+      <c r="E209" s="10" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="210" spans="5:5">
-      <c r="E210" s="12" t="s">
+      <c r="E210" s="10" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="211" spans="5:5">
-      <c r="E211" s="12" t="s">
+      <c r="E211" s="10" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="212" spans="5:5">
-      <c r="E212" s="12" t="s">
+      <c r="E212" s="10" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="213" spans="5:5">
-      <c r="E213" s="12" t="s">
+      <c r="E213" s="10" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="214" spans="5:5">
-      <c r="E214" s="12" t="s">
+      <c r="E214" s="10" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="215" spans="5:5">
-      <c r="E215" s="12" t="s">
+      <c r="E215" s="10" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="216" spans="5:5">
-      <c r="E216" s="12" t="s">
+      <c r="E216" s="10" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="217" spans="5:5">
-      <c r="E217" s="12" t="s">
+      <c r="E217" s="10" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="218" spans="5:5">
-      <c r="E218" s="12" t="s">
+      <c r="E218" s="10" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="219" spans="5:5">
-      <c r="E219" s="12" t="s">
+      <c r="E219" s="10" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="220" spans="5:5">
-      <c r="E220" s="12" t="s">
+      <c r="E220" s="10" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="221" spans="5:5">
-      <c r="E221" s="12" t="s">
+      <c r="E221" s="10" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="222" spans="5:5">
-      <c r="E222" s="12" t="s">
+      <c r="E222" s="10" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="223" spans="5:5">
-      <c r="E223" s="12" t="s">
+      <c r="E223" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="224" spans="5:5">
-      <c r="E224" s="12" t="s">
+      <c r="E224" s="10" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="225" spans="5:5">
-      <c r="E225" s="12" t="s">
+      <c r="E225" s="10" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="226" spans="5:5">
-      <c r="E226" s="12" t="s">
+      <c r="E226" s="10" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="227" spans="5:5">
-      <c r="E227" s="12" t="s">
+      <c r="E227" s="10" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="228" spans="5:5">
-      <c r="E228" s="12" t="s">
+      <c r="E228" s="10" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="229" spans="5:5">
-      <c r="E229" s="12" t="s">
+      <c r="E229" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="230" spans="5:5">
-      <c r="E230" s="12" t="s">
+      <c r="E230" s="10" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="231" spans="5:5">
-      <c r="E231" s="12" t="s">
+      <c r="E231" s="10" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="232" spans="5:5">
-      <c r="E232" s="12" t="s">
+      <c r="E232" s="10" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="233" spans="5:5">
-      <c r="E233" s="12" t="s">
+      <c r="E233" s="10" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="234" spans="5:5">
-      <c r="E234" s="12" t="s">
+      <c r="E234" s="10" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="235" spans="5:5">
-      <c r="E235" s="12" t="s">
+      <c r="E235" s="10" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="236" spans="5:5">
-      <c r="E236" s="12" t="s">
+      <c r="E236" s="10" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="237" spans="5:5">
-      <c r="E237" s="12" t="s">
+      <c r="E237" s="10" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="238" spans="5:5">
-      <c r="E238" s="12" t="s">
+      <c r="E238" s="10" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="239" spans="5:5">
-      <c r="E239" s="12" t="s">
+      <c r="E239" s="10" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="240" spans="5:5">
-      <c r="E240" s="12" t="s">
+      <c r="E240" s="10" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="241" spans="5:5">
-      <c r="E241" s="12" t="s">
+      <c r="E241" s="10" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="242" spans="5:5">
-      <c r="E242" s="12" t="s">
+      <c r="E242" s="10" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="243" spans="5:5">
-      <c r="E243" s="12" t="s">
+      <c r="E243" s="10" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="244" spans="5:5">
-      <c r="E244" s="12" t="s">
+      <c r="E244" s="10" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="245" spans="5:5">
-      <c r="E245" s="12" t="s">
+      <c r="E245" s="10" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="246" spans="5:5">
-      <c r="E246" s="12" t="s">
+      <c r="E246" s="10" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="247" spans="5:5">
-      <c r="E247" s="12" t="s">
+      <c r="E247" s="10" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="248" spans="5:5">
-      <c r="E248" s="12" t="s">
+      <c r="E248" s="10" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="249" spans="5:5">
-      <c r="E249" s="12" t="s">
+      <c r="E249" s="10" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="250" spans="5:5">
-      <c r="E250" s="12" t="s">
+      <c r="E250" s="10" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="251" spans="5:5">
-      <c r="E251" s="12" t="s">
+      <c r="E251" s="10" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="252" spans="5:5">
-      <c r="E252" s="12" t="s">
+      <c r="E252" s="10" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="253" spans="5:5">
-      <c r="E253" s="12" t="s">
+      <c r="E253" s="10" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="254" spans="5:5">
-      <c r="E254" s="12" t="s">
+      <c r="E254" s="10" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="255" spans="5:5">
-      <c r="E255" s="12" t="s">
+      <c r="E255" s="10" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="256" spans="5:5">
-      <c r="E256" s="12" t="s">
+      <c r="E256" s="10" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="257" spans="5:5">
-      <c r="E257" s="12" t="s">
+      <c r="E257" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="258" spans="5:5">
-      <c r="E258" s="12" t="s">
+      <c r="E258" s="10" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="259" spans="5:5">
-      <c r="E259" s="12" t="s">
+      <c r="E259" s="10" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="260" spans="5:5">
-      <c r="E260" s="12">
+      <c r="E260" s="10">
         <v>108</v>
       </c>
     </row>
     <row r="261" spans="5:5">
-      <c r="E261" s="11"/>
+      <c r="E261" s="9"/>
     </row>
     <row r="262" spans="5:5">
-      <c r="E262" s="12" t="s">
+      <c r="E262" s="10" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="263" spans="5:5">
-      <c r="E263" s="12" t="s">
+      <c r="E263" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="264" spans="5:5">
-      <c r="E264" s="12" t="s">
+      <c r="E264" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="265" spans="5:5">
-      <c r="E265" s="12" t="s">
+      <c r="E265" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="266" spans="5:5">
-      <c r="E266" s="12" t="s">
+      <c r="E266" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="267" spans="5:5">
-      <c r="E267" s="12" t="s">
+      <c r="E267" s="10" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="268" spans="5:5">
-      <c r="E268" s="12" t="s">
+      <c r="E268" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="269" spans="5:5">
-      <c r="E269" s="12" t="s">
+      <c r="E269" s="10" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="270" spans="5:5">
-      <c r="E270" s="12" t="s">
+      <c r="E270" s="10" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="271" spans="5:5">
-      <c r="E271" s="12" t="s">
+      <c r="E271" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="272" spans="5:5">
-      <c r="E272" s="12" t="s">
+      <c r="E272" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="273" spans="5:5">
-      <c r="E273" s="12" t="s">
+      <c r="E273" s="10" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="274" spans="5:5">
-      <c r="E274" s="12" t="s">
+      <c r="E274" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="275" spans="5:5">
-      <c r="E275" s="12" t="s">
+      <c r="E275" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="276" spans="5:5">
-      <c r="E276" s="12" t="s">
+      <c r="E276" s="10" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="277" spans="5:5">
-      <c r="E277" s="12" t="s">
+      <c r="E277" s="10" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="278" spans="5:5">
-      <c r="E278" s="12" t="s">
+      <c r="E278" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="279" spans="5:5">
-      <c r="E279" s="12" t="s">
+      <c r="E279" s="10" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="280" spans="5:5">
-      <c r="E280" s="12" t="s">
+      <c r="E280" s="10" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="281" spans="5:5">
-      <c r="E281" s="12" t="s">
+      <c r="E281" s="10" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="282" spans="5:5">
-      <c r="E282" s="12" t="s">
+      <c r="E282" s="10" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="283" spans="5:5">
-      <c r="E283" s="12" t="s">
+      <c r="E283" s="10" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="284" spans="5:5">
-      <c r="E284" s="12" t="s">
+      <c r="E284" s="10" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="285" spans="5:5">
-      <c r="E285" s="12" t="s">
+      <c r="E285" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="286" spans="5:5">
-      <c r="E286" s="12" t="s">
+      <c r="E286" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="287" spans="5:5">
-      <c r="E287" s="12" t="s">
+      <c r="E287" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="288" spans="5:5">
-      <c r="E288" s="12" t="s">
+      <c r="E288" s="10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="289" spans="5:5">
-      <c r="E289" s="12" t="s">
+      <c r="E289" s="10" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="290" spans="5:5">
-      <c r="E290" s="12" t="s">
+      <c r="E290" s="10" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="291" spans="5:5">
-      <c r="E291" s="12" t="s">
+      <c r="E291" s="10" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="292" spans="5:5">
-      <c r="E292" s="12" t="s">
+      <c r="E292" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="293" spans="5:5">
-      <c r="E293" s="12" t="s">
+      <c r="E293" s="10" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="294" spans="5:5">
-      <c r="E294" s="12" t="s">
+      <c r="E294" s="10" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="295" spans="5:5">
-      <c r="E295" s="12" t="s">
+      <c r="E295" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="296" spans="5:5">
-      <c r="E296" s="12" t="s">
+      <c r="E296" s="10" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="297" spans="5:5">
-      <c r="E297" s="12" t="s">
+      <c r="E297" s="10" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="298" spans="5:5">
-      <c r="E298" s="12" t="s">
+      <c r="E298" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="299" spans="5:5">
-      <c r="E299" s="12" t="s">
+      <c r="E299" s="10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="300" spans="5:5">
-      <c r="E300" s="12" t="s">
+      <c r="E300" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="301" spans="5:5">
-      <c r="E301" s="12" t="s">
+      <c r="E301" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="302" spans="5:5">
-      <c r="E302" s="12" t="s">
+      <c r="E302" s="10" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="303" spans="5:5">
-      <c r="E303" s="12" t="s">
+      <c r="E303" s="10" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="304" spans="5:5">
-      <c r="E304" s="12" t="s">
+      <c r="E304" s="10" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="305" spans="5:5">
-      <c r="E305" s="12" t="s">
+      <c r="E305" s="10" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="306" spans="5:5">
-      <c r="E306" s="12" t="s">
+      <c r="E306" s="10" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="307" spans="5:5">
-      <c r="E307" s="12" t="s">
+      <c r="E307" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="308" spans="5:5">
-      <c r="E308" s="12" t="s">
+      <c r="E308" s="10" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="309" spans="5:5">
-      <c r="E309" s="12" t="s">
+      <c r="E309" s="10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="310" spans="5:5">
-      <c r="E310" s="12" t="s">
+      <c r="E310" s="10" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="311" spans="5:5">
-      <c r="E311" s="12" t="s">
+      <c r="E311" s="10" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="312" spans="5:5">
-      <c r="E312" s="12" t="s">
+      <c r="E312" s="10" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="313" spans="5:5">
-      <c r="E313" s="12" t="s">
+      <c r="E313" s="10" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="314" spans="5:5">
-      <c r="E314" s="12" t="s">
+      <c r="E314" s="10" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="315" spans="5:5">
-      <c r="E315" s="12" t="s">
+      <c r="E315" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="316" spans="5:5">
-      <c r="E316" s="12" t="s">
+      <c r="E316" s="10" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="317" spans="5:5">
-      <c r="E317" s="12" t="s">
+      <c r="E317" s="10" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="318" spans="5:5">
-      <c r="E318" s="12">
+      <c r="E318" s="10">
         <v>55</v>
       </c>
     </row>
     <row r="319" spans="5:5">
-      <c r="E319" s="11"/>
+      <c r="E319" s="9"/>
     </row>
     <row r="320" spans="5:5">
-      <c r="E320" s="12" t="s">
+      <c r="E320" s="10" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="321" spans="5:5">
-      <c r="E321" s="12" t="s">
+      <c r="E321" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="322" spans="5:5">
-      <c r="E322" s="12" t="s">
+      <c r="E322" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="323" spans="5:5">
-      <c r="E323" s="12" t="s">
+      <c r="E323" s="10" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="324" spans="5:5">
-      <c r="E324" s="12" t="s">
+      <c r="E324" s="10" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="325" spans="5:5">
-      <c r="E325" s="12" t="s">
+      <c r="E325" s="10" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="326" spans="5:5">
-      <c r="E326" s="12" t="s">
+      <c r="E326" s="10" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="327" spans="5:5">
-      <c r="E327" s="12" t="s">
+      <c r="E327" s="10" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="328" spans="5:5">
-      <c r="E328" s="12" t="s">
+      <c r="E328" s="10" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="329" spans="5:5">
-      <c r="E329" s="12" t="s">
+      <c r="E329" s="10" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="330" spans="5:5">
-      <c r="E330" s="12" t="s">
+      <c r="E330" s="10" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="331" spans="5:5">
-      <c r="E331" s="12" t="s">
+      <c r="E331" s="10" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="332" spans="5:5">
-      <c r="E332" s="12" t="s">
+      <c r="E332" s="10" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="333" spans="5:5">
-      <c r="E333" s="12" t="s">
+      <c r="E333" s="10" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="334" spans="5:5">
-      <c r="E334" s="12" t="s">
+      <c r="E334" s="10" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="335" spans="5:5">
-      <c r="E335" s="12" t="s">
+      <c r="E335" s="10" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="336" spans="5:5">
-      <c r="E336" s="12" t="s">
+      <c r="E336" s="10" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="337" spans="5:5">
-      <c r="E337" s="12" t="s">
+      <c r="E337" s="10" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="338" spans="5:5">
-      <c r="E338" s="12" t="s">
+      <c r="E338" s="10" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="339" spans="5:5">
-      <c r="E339" s="12" t="s">
+      <c r="E339" s="10" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="340" spans="5:5">
-      <c r="E340" s="12" t="s">
+      <c r="E340" s="10" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="341" spans="5:5">
-      <c r="E341" s="12" t="s">
+      <c r="E341" s="10" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="342" spans="5:5">
-      <c r="E342" s="12" t="s">
+      <c r="E342" s="10" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="343" spans="5:5">
-      <c r="E343" s="12" t="s">
+      <c r="E343" s="10" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="344" spans="5:5">
-      <c r="E344" s="12" t="s">
+      <c r="E344" s="10" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="345" spans="5:5">
-      <c r="E345" s="12" t="s">
+      <c r="E345" s="10" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="346" spans="5:5">
-      <c r="E346" s="12" t="s">
+      <c r="E346" s="10" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="347" spans="5:5">
-      <c r="E347" s="12" t="s">
+      <c r="E347" s="10" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="348" spans="5:5">
-      <c r="E348" s="12" t="s">
+      <c r="E348" s="10" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="349" spans="5:5">
-      <c r="E349" s="12" t="s">
+      <c r="E349" s="10" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="350" spans="5:5">
-      <c r="E350" s="12" t="s">
+      <c r="E350" s="10" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="351" spans="5:5">
-      <c r="E351" s="12" t="s">
+      <c r="E351" s="10" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="352" spans="5:5">
-      <c r="E352" s="12" t="s">
+      <c r="E352" s="10" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="353" spans="5:5">
-      <c r="E353" s="12" t="s">
+      <c r="E353" s="10" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="354" spans="5:5">
-      <c r="E354" s="12" t="s">
+      <c r="E354" s="10" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="355" spans="5:5">
-      <c r="E355" s="12" t="s">
+      <c r="E355" s="10" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="356" spans="5:5">
-      <c r="E356" s="12" t="s">
+      <c r="E356" s="10" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="357" spans="5:5">
-      <c r="E357" s="12" t="s">
+      <c r="E357" s="10" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="358" spans="5:5">
-      <c r="E358" s="12" t="s">
+      <c r="E358" s="10" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="359" spans="5:5">
-      <c r="E359" s="12" t="s">
+      <c r="E359" s="10" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="360" spans="5:5">
-      <c r="E360" s="12" t="s">
+      <c r="E360" s="10" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="361" spans="5:5">
-      <c r="E361" s="12" t="s">
+      <c r="E361" s="10" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="362" spans="5:5">
-      <c r="E362" s="12" t="s">
+      <c r="E362" s="10" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="363" spans="5:5">
-      <c r="E363" s="12" t="s">
+      <c r="E363" s="10" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="364" spans="5:5">
-      <c r="E364" s="12" t="s">
+      <c r="E364" s="10" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="365" spans="5:5">
-      <c r="E365" s="12" t="s">
+      <c r="E365" s="10" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="366" spans="5:5">
-      <c r="E366" s="12" t="s">
+      <c r="E366" s="10" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="367" spans="5:5">
-      <c r="E367" s="12" t="s">
+      <c r="E367" s="10" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="368" spans="5:5">
-      <c r="E368" s="12" t="s">
+      <c r="E368" s="10" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="369" spans="5:5">
-      <c r="E369" s="12" t="s">
+      <c r="E369" s="10" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="370" spans="5:5">
-      <c r="E370" s="12" t="s">
+      <c r="E370" s="10" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="371" spans="5:5">
-      <c r="E371" s="12" t="s">
+      <c r="E371" s="10" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="372" spans="5:5">
-      <c r="E372" s="12" t="s">
+      <c r="E372" s="10" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="373" spans="5:5">
-      <c r="E373" s="12" t="s">
+      <c r="E373" s="10" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="374" spans="5:5">
-      <c r="E374" s="12" t="s">
+      <c r="E374" s="10" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="375" spans="5:5">
-      <c r="E375" s="12" t="s">
+      <c r="E375" s="10" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="376" spans="5:5">
-      <c r="E376" s="12" t="s">
+      <c r="E376" s="10" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="377" spans="5:5">
-      <c r="E377" s="12" t="s">
+      <c r="E377" s="10" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="378" spans="5:5">
-      <c r="E378" s="12" t="s">
+      <c r="E378" s="10" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="379" spans="5:5">
-      <c r="E379" s="12" t="s">
+      <c r="E379" s="10" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="380" spans="5:5">
-      <c r="E380" s="12" t="s">
+      <c r="E380" s="10" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="381" spans="5:5">
-      <c r="E381" s="12" t="s">
+      <c r="E381" s="10" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="382" spans="5:5">
-      <c r="E382" s="12" t="s">
+      <c r="E382" s="10" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="383" spans="5:5">
-      <c r="E383" s="12" t="s">
+      <c r="E383" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="384" spans="5:5">
-      <c r="E384" s="12" t="s">
+      <c r="E384" s="10" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="385" spans="5:5">
-      <c r="E385" s="12" t="s">
+      <c r="E385" s="10" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="386" spans="5:5">
-      <c r="E386" s="12" t="s">
+      <c r="E386" s="10" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="387" spans="5:5">
-      <c r="E387" s="12" t="s">
+      <c r="E387" s="10" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="388" spans="5:5">
-      <c r="E388" s="12" t="s">
+      <c r="E388" s="10" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="389" spans="5:5">
-      <c r="E389" s="12" t="s">
+      <c r="E389" s="10" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="390" spans="5:5">
-      <c r="E390" s="12" t="s">
+      <c r="E390" s="10" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="391" spans="5:5">
-      <c r="E391" s="12" t="s">
+      <c r="E391" s="10" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="392" spans="5:5">
-      <c r="E392" s="12" t="s">
+      <c r="E392" s="10" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="393" spans="5:5">
-      <c r="E393" s="12" t="s">
+      <c r="E393" s="10" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="394" spans="5:5">
-      <c r="E394" s="12" t="s">
+      <c r="E394" s="10" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="395" spans="5:5">
-      <c r="E395" s="12" t="s">
+      <c r="E395" s="10" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="396" spans="5:5">
-      <c r="E396" s="12" t="s">
+      <c r="E396" s="10" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="397" spans="5:5">
-      <c r="E397" s="12" t="s">
+      <c r="E397" s="10" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="398" spans="5:5">
-      <c r="E398" s="12" t="s">
+      <c r="E398" s="10" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="399" spans="5:5">
-      <c r="E399" s="12" t="s">
+      <c r="E399" s="10" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="400" spans="5:5">
-      <c r="E400" s="12" t="s">
+      <c r="E400" s="10" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="401" spans="5:5">
-      <c r="E401" s="12" t="s">
+      <c r="E401" s="10" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="402" spans="5:5">
-      <c r="E402" s="12" t="s">
+      <c r="E402" s="10" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="403" spans="5:5">
-      <c r="E403" s="12" t="s">
+      <c r="E403" s="10" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="404" spans="5:5">
-      <c r="E404" s="12" t="s">
+      <c r="E404" s="10" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="405" spans="5:5">
-      <c r="E405" s="12" t="s">
+      <c r="E405" s="10" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="406" spans="5:5">
-      <c r="E406" s="12" t="s">
+      <c r="E406" s="10" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="407" spans="5:5">
-      <c r="E407" s="12" t="s">
+      <c r="E407" s="10" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="408" spans="5:5">
-      <c r="E408" s="12" t="s">
+      <c r="E408" s="10" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="409" spans="5:5">
-      <c r="E409" s="12" t="s">
+      <c r="E409" s="10" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="410" spans="5:5">
-      <c r="E410" s="12" t="s">
+      <c r="E410" s="10" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="411" spans="5:5">
-      <c r="E411" s="12" t="s">
+      <c r="E411" s="10" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="412" spans="5:5">
-      <c r="E412" s="12" t="s">
+      <c r="E412" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="413" spans="5:5">
-      <c r="E413" s="12" t="s">
+      <c r="E413" s="10" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="414" spans="5:5">
-      <c r="E414" s="12" t="s">
+      <c r="E414" s="10" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="415" spans="5:5">
-      <c r="E415" s="12" t="s">
+      <c r="E415" s="10" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="416" spans="5:5">
-      <c r="E416" s="12" t="s">
+      <c r="E416" s="10" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="417" spans="5:5">
-      <c r="E417" s="12" t="s">
+      <c r="E417" s="10" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="418" spans="5:5">
-      <c r="E418" s="12" t="s">
+      <c r="E418" s="10" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="419" spans="5:5">
-      <c r="E419" s="12" t="s">
+      <c r="E419" s="10" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="420" spans="5:5">
-      <c r="E420" s="12" t="s">
+      <c r="E420" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="421" spans="5:5">
-      <c r="E421" s="12" t="s">
+      <c r="E421" s="10" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="422" spans="5:5">
-      <c r="E422" s="12" t="s">
+      <c r="E422" s="10" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="423" spans="5:5">
-      <c r="E423" s="12" t="s">
+      <c r="E423" s="10" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="424" spans="5:5">
-      <c r="E424" s="12" t="s">
+      <c r="E424" s="10" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="425" spans="5:5">
-      <c r="E425" s="12" t="s">
+      <c r="E425" s="10" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="426" spans="5:5">
-      <c r="E426" s="12" t="s">
+      <c r="E426" s="10" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="427" spans="5:5">
-      <c r="E427" s="12" t="s">
+      <c r="E427" s="10" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="428" spans="5:5">
-      <c r="E428" s="12" t="s">
+      <c r="E428" s="10" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="429" spans="5:5">
-      <c r="E429" s="12" t="s">
+      <c r="E429" s="10" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="430" spans="5:5">
-      <c r="E430" s="12" t="s">
+      <c r="E430" s="10" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="431" spans="5:5">
-      <c r="E431" s="12" t="s">
+      <c r="E431" s="10" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="432" spans="5:5">
-      <c r="E432" s="12" t="s">
+      <c r="E432" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="433" spans="5:5">
-      <c r="E433" s="12" t="s">
+      <c r="E433" s="10" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="434" spans="5:5">
-      <c r="E434" s="12" t="s">
+      <c r="E434" s="10" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="435" spans="5:5">
-      <c r="E435" s="12">
+      <c r="E435" s="10">
         <v>114</v>
       </c>
     </row>
     <row r="436" spans="5:5">
-      <c r="E436" s="11"/>
+      <c r="E436" s="9"/>
     </row>
     <row r="437" spans="5:5">
-      <c r="E437" s="12" t="s">
+      <c r="E437" s="10" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="438" spans="5:5">
-      <c r="E438" s="12" t="s">
+      <c r="E438" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="439" spans="5:5">
-      <c r="E439" s="12" t="s">
+      <c r="E439" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="440" spans="5:5">
-      <c r="E440" s="12" t="s">
+      <c r="E440" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="441" spans="5:5">
-      <c r="E441" s="12" t="s">
+      <c r="E441" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="442" spans="5:5">
-      <c r="E442" s="12" t="s">
+      <c r="E442" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="443" spans="5:5">
-      <c r="E443" s="12" t="s">
+      <c r="E443" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="444" spans="5:5">
-      <c r="E444" s="12" t="s">
+      <c r="E444" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="445" spans="5:5">
-      <c r="E445" s="12" t="s">
+      <c r="E445" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="446" spans="5:5">
-      <c r="E446" s="12" t="s">
+      <c r="E446" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="447" spans="5:5">
-      <c r="E447" s="12" t="s">
+      <c r="E447" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="448" spans="5:5">
-      <c r="E448" s="12" t="s">
+      <c r="E448" s="10" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="449" spans="5:5">
-      <c r="E449" s="12" t="s">
+      <c r="E449" s="10" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="450" spans="5:5">
-      <c r="E450" s="12" t="s">
+      <c r="E450" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="451" spans="5:5">
-      <c r="E451" s="12" t="s">
+      <c r="E451" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="452" spans="5:5">
-      <c r="E452" s="12" t="s">
+      <c r="E452" s="10" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="453" spans="5:5">
-      <c r="E453" s="12" t="s">
+      <c r="E453" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="454" spans="5:5">
-      <c r="E454" s="12" t="s">
+      <c r="E454" s="10" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="455" spans="5:5">
-      <c r="E455" s="12" t="s">
+      <c r="E455" s="10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="456" spans="5:5">
-      <c r="E456" s="12" t="s">
+      <c r="E456" s="10" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="457" spans="5:5">
-      <c r="E457" s="12" t="s">
+      <c r="E457" s="10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="458" spans="5:5">
-      <c r="E458" s="12" t="s">
+      <c r="E458" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="459" spans="5:5">
-      <c r="E459" s="12" t="s">
+      <c r="E459" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="460" spans="5:5">
-      <c r="E460" s="12" t="s">
+      <c r="E460" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="461" spans="5:5">
-      <c r="E461" s="12" t="s">
+      <c r="E461" s="10" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="462" spans="5:5">
-      <c r="E462" s="12" t="s">
+      <c r="E462" s="10" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="463" spans="5:5">
-      <c r="E463" s="12" t="s">
+      <c r="E463" s="10" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="464" spans="5:5">
-      <c r="E464" s="12" t="s">
+      <c r="E464" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="465" spans="5:5">
-      <c r="E465" s="12" t="s">
+      <c r="E465" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="466" spans="5:5">
-      <c r="E466" s="12" t="s">
+      <c r="E466" s="10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="467" spans="5:5">
-      <c r="E467" s="12" t="s">
+      <c r="E467" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="468" spans="5:5">
-      <c r="E468" s="12" t="s">
+      <c r="E468" s="10" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="469" spans="5:5">
-      <c r="E469" s="12" t="s">
+      <c r="E469" s="10" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="470" spans="5:5">
-      <c r="E470" s="12" t="s">
+      <c r="E470" s="10" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="471" spans="5:5">
-      <c r="E471" s="12" t="s">
+      <c r="E471" s="10" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="472" spans="5:5">
-      <c r="E472" s="12" t="s">
+      <c r="E472" s="10" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="473" spans="5:5">
-      <c r="E473" s="12" t="s">
+      <c r="E473" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="474" spans="5:5">
-      <c r="E474" s="12" t="s">
+      <c r="E474" s="10" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="475" spans="5:5">
-      <c r="E475" s="12" t="s">
+      <c r="E475" s="10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="476" spans="5:5">
-      <c r="E476" s="12" t="s">
+      <c r="E476" s="10" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="477" spans="5:5">
-      <c r="E477" s="12" t="s">
+      <c r="E477" s="10" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="478" spans="5:5">
-      <c r="E478" s="12" t="s">
+      <c r="E478" s="10" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="479" spans="5:5">
-      <c r="E479" s="12" t="s">
+      <c r="E479" s="10" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="480" spans="5:5">
-      <c r="E480" s="12" t="s">
+      <c r="E480" s="10" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="481" spans="5:5">
-      <c r="E481" s="12" t="s">
+      <c r="E481" s="10" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="482" spans="5:5">
-      <c r="E482" s="12" t="s">
+      <c r="E482" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="483" spans="5:5">
-      <c r="E483" s="12" t="s">
+      <c r="E483" s="10" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="484" spans="5:5">
-      <c r="E484" s="12" t="s">
+      <c r="E484" s="10" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="485" spans="5:5">
-      <c r="E485" s="12">
+      <c r="E485" s="10">
         <v>47</v>
       </c>
     </row>
     <row r="486" spans="5:5">
-      <c r="E486" s="11"/>
+      <c r="E486" s="9"/>
     </row>
     <row r="487" spans="5:5">
-      <c r="E487" s="12" t="s">
+      <c r="E487" s="10" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="488" spans="5:5">
-      <c r="E488" s="12" t="s">
+      <c r="E488" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="489" spans="5:5">
-      <c r="E489" s="12" t="s">
+      <c r="E489" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="490" spans="5:5">
-      <c r="E490" s="12" t="s">
+      <c r="E490" s="10" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="491" spans="5:5">
-      <c r="E491" s="12" t="s">
+      <c r="E491" s="10" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="492" spans="5:5">
-      <c r="E492" s="12" t="s">
+      <c r="E492" s="10" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="493" spans="5:5">
-      <c r="E493" s="12" t="s">
+      <c r="E493" s="10" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="494" spans="5:5">
-      <c r="E494" s="12" t="s">
+      <c r="E494" s="10" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="495" spans="5:5">
-      <c r="E495" s="12" t="s">
+      <c r="E495" s="10" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="496" spans="5:5">
-      <c r="E496" s="12" t="s">
+      <c r="E496" s="10" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="497" spans="5:5">
-      <c r="E497" s="12" t="s">
+      <c r="E497" s="10" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="498" spans="5:5">
-      <c r="E498" s="12" t="s">
+      <c r="E498" s="10" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="499" spans="5:5">
-      <c r="E499" s="12" t="s">
+      <c r="E499" s="10" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="500" spans="5:5">
-      <c r="E500" s="12" t="s">
+      <c r="E500" s="10" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="501" spans="5:5">
-      <c r="E501" s="12" t="s">
+      <c r="E501" s="10" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="502" spans="5:5">
-      <c r="E502" s="12" t="s">
+      <c r="E502" s="10" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="503" spans="5:5">
-      <c r="E503" s="12" t="s">
+      <c r="E503" s="10" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="504" spans="5:5">
-      <c r="E504" s="12" t="s">
+      <c r="E504" s="10" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="505" spans="5:5">
-      <c r="E505" s="12" t="s">
+      <c r="E505" s="10" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="506" spans="5:5">
-      <c r="E506" s="12" t="s">
+      <c r="E506" s="10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="507" spans="5:5">
-      <c r="E507" s="12" t="s">
+      <c r="E507" s="10" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="508" spans="5:5">
-      <c r="E508" s="12" t="s">
+      <c r="E508" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="509" spans="5:5">
-      <c r="E509" s="12" t="s">
+      <c r="E509" s="10" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="510" spans="5:5">
-      <c r="E510" s="12" t="s">
+      <c r="E510" s="10" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="511" spans="5:5">
-      <c r="E511" s="12" t="s">
+      <c r="E511" s="10" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="512" spans="5:5">
-      <c r="E512" s="12" t="s">
+      <c r="E512" s="10" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="513" spans="5:5">
-      <c r="E513" s="12" t="s">
+      <c r="E513" s="10" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="514" spans="5:5">
-      <c r="E514" s="12" t="s">
+      <c r="E514" s="10" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="515" spans="5:5">
-      <c r="E515" s="12" t="s">
+      <c r="E515" s="10" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="516" spans="5:5">
-      <c r="E516" s="12" t="s">
+      <c r="E516" s="10" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="517" spans="5:5">
-      <c r="E517" s="12" t="s">
+      <c r="E517" s="10" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="518" spans="5:5">
-      <c r="E518" s="12" t="s">
+      <c r="E518" s="10" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="519" spans="5:5">
-      <c r="E519" s="12" t="s">
+      <c r="E519" s="10" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="520" spans="5:5">
-      <c r="E520" s="12" t="s">
+      <c r="E520" s="10" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="521" spans="5:5">
-      <c r="E521" s="12" t="s">
+      <c r="E521" s="10" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="522" spans="5:5">
-      <c r="E522" s="12" t="s">
+      <c r="E522" s="10" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="523" spans="5:5">
-      <c r="E523" s="12" t="s">
+      <c r="E523" s="10" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="524" spans="5:5">
-      <c r="E524" s="12" t="s">
+      <c r="E524" s="10" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="525" spans="5:5">
-      <c r="E525" s="12" t="s">
+      <c r="E525" s="10" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="526" spans="5:5">
-      <c r="E526" s="12" t="s">
+      <c r="E526" s="10" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="527" spans="5:5">
-      <c r="E527" s="12" t="s">
+      <c r="E527" s="10" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="528" spans="5:5">
-      <c r="E528" s="12" t="s">
+      <c r="E528" s="10" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="529" spans="5:5">
-      <c r="E529" s="12" t="s">
+      <c r="E529" s="10" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="530" spans="5:5">
-      <c r="E530" s="12" t="s">
+      <c r="E530" s="10" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="531" spans="5:5">
-      <c r="E531" s="12" t="s">
+      <c r="E531" s="10" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="532" spans="5:5">
-      <c r="E532" s="12" t="s">
+      <c r="E532" s="10" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="533" spans="5:5">
-      <c r="E533" s="12" t="s">
+      <c r="E533" s="10" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="534" spans="5:5">
-      <c r="E534" s="12" t="s">
+      <c r="E534" s="10" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="535" spans="5:5">
-      <c r="E535" s="12" t="s">
+      <c r="E535" s="10" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="536" spans="5:5">
-      <c r="E536" s="12" t="s">
+      <c r="E536" s="10" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="537" spans="5:5">
-      <c r="E537" s="12" t="s">
+      <c r="E537" s="10" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="538" spans="5:5">
-      <c r="E538" s="12" t="s">
+      <c r="E538" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="539" spans="5:5">
-      <c r="E539" s="12" t="s">
+      <c r="E539" s="10" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="540" spans="5:5">
-      <c r="E540" s="12" t="s">
+      <c r="E540" s="10" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="541" spans="5:5">
-      <c r="E541" s="12" t="s">
+      <c r="E541" s="10" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="542" spans="5:5">
-      <c r="E542" s="12" t="s">
+      <c r="E542" s="10" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="543" spans="5:5">
-      <c r="E543" s="12" t="s">
+      <c r="E543" s="10" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="544" spans="5:5">
-      <c r="E544" s="12" t="s">
+      <c r="E544" s="10" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="545" spans="5:5">
-      <c r="E545" s="12" t="s">
+      <c r="E545" s="10" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="546" spans="5:5">
-      <c r="E546" s="12" t="s">
+      <c r="E546" s="10" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="547" spans="5:5">
-      <c r="E547" s="12" t="s">
+      <c r="E547" s="10" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="548" spans="5:5">
-      <c r="E548" s="12" t="s">
+      <c r="E548" s="10" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="549" spans="5:5">
-      <c r="E549" s="12" t="s">
+      <c r="E549" s="10" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="550" spans="5:5">
-      <c r="E550" s="12" t="s">
+      <c r="E550" s="10" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="551" spans="5:5">
-      <c r="E551" s="12" t="s">
+      <c r="E551" s="10" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="552" spans="5:5">
-      <c r="E552" s="12" t="s">
+      <c r="E552" s="10" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="553" spans="5:5">
-      <c r="E553" s="12" t="s">
+      <c r="E553" s="10" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="554" spans="5:5">
-      <c r="E554" s="12" t="s">
+      <c r="E554" s="10" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="555" spans="5:5">
-      <c r="E555" s="12" t="s">
+      <c r="E555" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="556" spans="5:5">
-      <c r="E556" s="12" t="s">
+      <c r="E556" s="10" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="557" spans="5:5">
-      <c r="E557" s="12" t="s">
+      <c r="E557" s="10" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="558" spans="5:5">
-      <c r="E558" s="12" t="s">
+      <c r="E558" s="10" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="559" spans="5:5">
-      <c r="E559" s="12" t="s">
+      <c r="E559" s="10" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="560" spans="5:5">
-      <c r="E560" s="12" t="s">
+      <c r="E560" s="10" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="561" spans="5:5">
-      <c r="E561" s="12" t="s">
+      <c r="E561" s="10" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="562" spans="5:5">
-      <c r="E562" s="12" t="s">
+      <c r="E562" s="10" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="563" spans="5:5">
-      <c r="E563" s="12" t="s">
+      <c r="E563" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="564" spans="5:5">
-      <c r="E564" s="12" t="s">
+      <c r="E564" s="10" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="565" spans="5:5">
-      <c r="E565" s="12" t="s">
+      <c r="E565" s="10" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="566" spans="5:5">
-      <c r="E566" s="12" t="s">
+      <c r="E566" s="10" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="567" spans="5:5">
-      <c r="E567" s="12" t="s">
+      <c r="E567" s="10" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="568" spans="5:5">
-      <c r="E568" s="12" t="s">
+      <c r="E568" s="10" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="569" spans="5:5">
-      <c r="E569" s="12" t="s">
+      <c r="E569" s="10" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="570" spans="5:5">
-      <c r="E570" s="12" t="s">
+      <c r="E570" s="10" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="571" spans="5:5">
-      <c r="E571" s="12" t="s">
+      <c r="E571" s="10" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="572" spans="5:5">
-      <c r="E572" s="12" t="s">
+      <c r="E572" s="10" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="573" spans="5:5">
-      <c r="E573" s="12" t="s">
+      <c r="E573" s="10" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="574" spans="5:5">
-      <c r="E574" s="12" t="s">
+      <c r="E574" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="575" spans="5:5">
-      <c r="E575" s="12" t="s">
+      <c r="E575" s="10" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="576" spans="5:5">
-      <c r="E576" s="12" t="s">
+      <c r="E576" s="10" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="577" spans="5:5">
-      <c r="E577" s="12">
+      <c r="E577" s="10">
         <v>89</v>
       </c>
     </row>
@@ -4939,5 +4990,6 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>